--- a/medicine/Enfance/Jill_Paton_Walsh/Jill_Paton_Walsh.xlsx
+++ b/medicine/Enfance/Jill_Paton_Walsh/Jill_Paton_Walsh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jill Paton Walsh, née le 29 avril 1937 à Londres, en Angleterre et morte le 18 octobre 2020[1] à Huntingdon en Angleterre[2], est une femme de lettres britannique, auteure de roman policier, de roman historique et de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jill Paton Walsh, née le 29 avril 1937 à Londres, en Angleterre et morte le 18 octobre 2020 à Huntingdon en Angleterre, est une femme de lettres britannique, auteure de roman policier, de roman historique et de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études à la St Michael's Catholic Grammar School (en), puis étudie la littérature à St Anne's College. En 1961, elle épouse Antony Paton Walsh et, après son décès en 2003, elle se remarie avec John Rowe Townsend (en) en 2004.
 En 1966, elle publie son premier roman de littérature d'enfance et de jeunesse, Hengest's Tale. Dans ce genre littéraire, elle est finaliste du prix Booker 1994 pour Ce que savent les anges (Knowledge of Angels) et est lauréate du prix Phoenix (en) 1998 pour A Chance Child.
@@ -548,26 +562,185 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Imogen Quy
-The Wyndham Case (1993)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Imogen Quy</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Wyndham Case (1993)
 A Piece of Justice (1995)
 Debts of Dishonor (2006)
-The Bad Quarto (2007)
-Série Lord Peter Wimsey et Harriet Vane
-Thrones, Dominations (1998) Publié en français sous le titre Au crépuscule de l'Empire, Paris, Éditions du Masque, 1999  (ISBN 2-7024-7885-9) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 14903, 2000  (ISBN 2-253-14903-9)
+The Bad Quarto (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Lord Peter Wimsey et Harriet Vane</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thrones, Dominations (1998) Publié en français sous le titre Au crépuscule de l'Empire, Paris, Éditions du Masque, 1999  (ISBN 2-7024-7885-9) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 14903, 2000  (ISBN 2-253-14903-9)
 A Presumption of Death (2002)
 The Attenbury Emeralds (2010)
-The Late Scholar (2013)
-Littérature d'enfance et de jeunesse
-Série Goldengrove
-Goldengrove (1972) Publié en français sous le titre L'Année où on a repeint la barque, Paris, L'École des loisirs, coll. « Médium », 1989  (ISBN 2-211-05900-7) ; réédition, Paris, L'École des loisirs, coll. « Médium poche », 1990  (ISBN 2-211-07732-3)
-Unleaving (1976)
-Série Gripping Tales
-Birdy and The Ghosties (1989)
-Thomas and the Tinners (1995)
-Autres romans
-Hengest's Tale (1966)
+The Late Scholar (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Goldengrove</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Goldengrove (1972) Publié en français sous le titre L'Année où on a repeint la barque, Paris, L'École des loisirs, coll. « Médium », 1989  (ISBN 2-211-05900-7) ; réédition, Paris, L'École des loisirs, coll. « Médium poche », 1990  (ISBN 2-211-07732-3)
+Unleaving (1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Gripping Tales</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Birdy and The Ghosties (1989)
+Thomas and the Tinners (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hengest's Tale (1966)
 The Dolphin Crossing (1967)
 Fireweed (1969) Publié en français sous le titre À deux on est plus fort, Paris, Hachette Jeunesse, coll. « Le Livre de poche jeunesse » no 407, 1989  (ISBN 2-01-015221-2)
 Farewell, Great King (1972)
@@ -584,9 +757,47 @@
 Grace (1991)
 Knowledge of Angels (1994) Publié en français sous le titre Ce que savent les anges, Paris, Éditions Denoël, coll. « Empreinte », 1995  (ISBN 2-207-24453-9)
 The Serpentine Cave (1997) Publié en français sous le titre La Grotte Serpentine, Paris, Mercure de France, coll. « Bibliothèque étrangère », 2000  (ISBN 2-7152-2193-2)
-A Desert in Bohemia (2000)
-Chapbooks
-Toolmaker (1973)
+A Desert in Bohemia (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chapbooks</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Toolmaker (1973)
 The Dawnstone (1973)
 Crossing to Salamis (1977)
 Persian Gold (1978)
@@ -598,49 +809,160 @@
 Can I Play Jenny Jones? (1990)
 Can I Play Queenie? (1990)
 Can I Play Wolf? (1990)
-Matthew and the Sea Singer (1992)
-Livres illustrés
-When Grandma Came (1992) Publié en français sous le titre La Visite de Mamie, Paris, Kaléidoscope, 1992  (ISBN 2-87767-082-1)
+Matthew and the Sea Singer (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>When Grandma Came (1992) Publié en français sous le titre La Visite de Mamie, Paris, Kaléidoscope, 1992  (ISBN 2-87767-082-1)
 Pepi and the Secret Names (1994) Publié en français sous le titre Le Mystère des hiéroglyphes, Paris, Flammarion, coll. « Père Castor », 1997  (ISBN 2-08160404-3)
 Connie Came to Play (1995)
-When I was Little like You (1997) Publié en français sous le titre Quand j'étais petite comme toi, Paris, Flammarion, coll. « Père Castor », 1997  (ISBN 2-08-160442-6)
-Autre ouvrage
-The Island Sunrise (1975)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jill_Paton_Walsh</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+When I was Little like You (1997) Publié en français sous le titre Quand j'étais petite comme toi, Paris, Flammarion, coll. « Père Castor », 1997  (ISBN 2-08-160442-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Island Sunrise (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Phoenix (en) 1998 pour A Chance Child[3]
-Nominations
-Prix Booker 1994 pour Knowledge of Angels[4]
-Gold Dagger Award 1995 pour A Piece of Justice[5]
-Historical Dagger Award 2014 pour The Late Scholar[5]</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix Phoenix (en) 1998 pour A Chance Child</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jill_Paton_Walsh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prix Booker 1994 pour Knowledge of Angels
+Gold Dagger Award 1995 pour A Piece of Justice
+Historical Dagger Award 2014 pour The Late Scholar</t>
         </is>
       </c>
     </row>
